--- a/data/PVI.xlsx
+++ b/data/PVI.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>PVI</t>
@@ -2477,13 +2477,13 @@
         <v>2.1207354244963E13</v>
       </c>
       <c r="AM12" s="13" t="n">
-        <v>2.5935163420416E13</v>
+        <v>2.5919086972869E13</v>
       </c>
       <c r="AN12" s="13" t="n">
         <v>2.6361760721091E13</v>
       </c>
       <c r="AO12" s="13" t="n">
-        <v>2.5680956490434E13</v>
+        <v>2.5673156551606E13</v>
       </c>
       <c r="AP12" s="13" t="n">
         <v>2.6187880113585E13</v>
@@ -2617,7 +2617,7 @@
         <v>6.13506093397E11</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>6.92973445375E11</v>
+        <v>6.22973445375E11</v>
       </c>
       <c r="AP13" s="13" t="n">
         <v>3.88792764696E11</v>
@@ -2885,7 +2885,7 @@
         <v>2.27E11</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>1.307E11</v>
+        <v>6.07E10</v>
       </c>
       <c r="AP15" s="13" t="n">
         <v>7.2554640506E10</v>
@@ -3013,13 +3013,13 @@
         <v>7.613096896327E12</v>
       </c>
       <c r="AM16" s="13" t="n">
-        <v>1.0284562216095E13</v>
+        <v>1.0282449968765E13</v>
       </c>
       <c r="AN16" s="13" t="n">
         <v>1.0647911962647E13</v>
       </c>
       <c r="AO16" s="13" t="n">
-        <v>8.501355536065E12</v>
+        <v>8.571355536065E12</v>
       </c>
       <c r="AP16" s="13" t="n">
         <v>9.95911353506E12</v>
@@ -3147,7 +3147,7 @@
         <v>7.8370788E11</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>1.134770119876E12</v>
+        <v>1.327284910632E12</v>
       </c>
       <c r="AN17" s="13" t="n">
         <v>1.527869767612E12</v>
@@ -3415,13 +3415,13 @@
         <v>6.866474896327E12</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>9.186877976219E12</v>
+        <v>8.992250938133E12</v>
       </c>
       <c r="AN19" s="13" t="n">
         <v>9.157128075035E12</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>8.255412138741E12</v>
+        <v>8.325412138741E12</v>
       </c>
       <c r="AP19" s="13" t="n">
         <v>9.713170137736E12</v>
@@ -3549,13 +3549,13 @@
         <v>1.2041555366138E13</v>
       </c>
       <c r="AM20" s="13" t="n">
-        <v>1.40343078359E13</v>
+        <v>1.4019740902622E13</v>
       </c>
       <c r="AN20" s="13" t="n">
         <v>1.4317090917222E13</v>
       </c>
       <c r="AO20" s="13" t="n">
-        <v>1.5750101882422E13</v>
+        <v>1.5743995138351E13</v>
       </c>
       <c r="AP20" s="13" t="n">
         <v>1.5019145938281E13</v>
@@ -3683,13 +3683,13 @@
         <v>1.2014232805483E13</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>1.3991048490101E13</v>
+        <v>1.3976461556823E13</v>
       </c>
       <c r="AN21" s="13" t="n">
         <v>1.4254549358459E13</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>1.5727952990542E13</v>
+        <v>1.5722587746471E13</v>
       </c>
       <c r="AP21" s="13" t="n">
         <v>1.5010359058562E13</v>
@@ -3951,13 +3951,13 @@
         <v>1.2014232805483E13</v>
       </c>
       <c r="AM23" s="13" t="n">
-        <v>1.3991048490101E13</v>
+        <v>1.3976461556823E13</v>
       </c>
       <c r="AN23" s="13" t="n">
         <v>1.4254549358459E13</v>
       </c>
       <c r="AO23" s="13" t="n">
-        <v>1.5727952990542E13</v>
+        <v>1.5722587746471E13</v>
       </c>
       <c r="AP23" s="13" t="n">
         <v>1.5010359058562E13</v>
@@ -4091,7 +4091,7 @@
         <v>8.534294977E9</v>
       </c>
       <c r="AO24" s="13" t="n">
-        <v>7.733635723E9</v>
+        <v>6.992135723E9</v>
       </c>
       <c r="AP24" s="13" t="n">
         <v>7.152198964E9</v>
@@ -4889,7 +4889,7 @@
         <v>2.45512400253E11</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>2.67700899706E11</v>
+        <v>2.67720899706E11</v>
       </c>
       <c r="AN30" s="13" t="n">
         <v>2.87684035856E11</v>
@@ -5559,13 +5559,13 @@
         <v>6.74060386627E11</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>6.86903009906E11</v>
+        <v>6.87505742967E11</v>
       </c>
       <c r="AN35" s="13" t="n">
         <v>7.80738696176E11</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>7.34397849844E11</v>
+        <v>7.32704655087E11</v>
       </c>
       <c r="AP35" s="13" t="n">
         <v>8.17818905913E11</v>
@@ -5693,13 +5693,13 @@
         <v>6.56204466413E11</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>6.73408615171E11</v>
+        <v>6.74054875386E11</v>
       </c>
       <c r="AN36" s="13" t="n">
         <v>7.73675804133E11</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>7.25376404561E11</v>
+        <v>7.23683209804E11</v>
       </c>
       <c r="AP36" s="13" t="n">
         <v>8.12786418685E11</v>
@@ -5961,13 +5961,13 @@
         <v>6.56204466413E11</v>
       </c>
       <c r="AM38" s="13" t="n">
-        <v>6.73408615171E11</v>
+        <v>6.74054875386E11</v>
       </c>
       <c r="AN38" s="13" t="n">
         <v>7.73675804133E11</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>7.25376404561E11</v>
+        <v>7.23683209804E11</v>
       </c>
       <c r="AP38" s="13" t="n">
         <v>8.12786418685E11</v>
@@ -6363,7 +6363,7 @@
         <v>4.767874035E9</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>6.002234581E9</v>
+        <v>5.984848349E9</v>
       </c>
       <c r="AN41" s="13" t="n">
         <v>5.036374443E9</v>
@@ -7703,7 +7703,7 @@
         <v>5.738453254848E12</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>4.775697116288E12</v>
+        <v>4.775417771609E12</v>
       </c>
       <c r="AN51" s="13" t="n">
         <v>4.874144119482E12</v>
@@ -11455,7 +11455,7 @@
         <v>4.46794430375E12</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>3.520421753396E12</v>
+        <v>3.52027948121E12</v>
       </c>
       <c r="AN79" s="13" t="n">
         <v>3.631909600618E12</v>
@@ -12125,7 +12125,7 @@
         <v>4.443693531295E12</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>3.497642691468E12</v>
+        <v>3.497500419282E12</v>
       </c>
       <c r="AN84" s="13" t="n">
         <v>3.62458453869E12</v>
@@ -12393,7 +12393,7 @@
         <v>1.00053480948E11</v>
       </c>
       <c r="AM86" s="13" t="n">
-        <v>9.7735246015E10</v>
+        <v>9.7598173522E10</v>
       </c>
       <c r="AN86" s="13" t="n">
         <v>9.8196589928E10</v>
@@ -12527,7 +12527,7 @@
         <v>8.4552537053E10</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>7.5136497847E10</v>
+        <v>7.4999425354E10</v>
       </c>
       <c r="AN87" s="13" t="n">
         <v>6.4965165223E10</v>
@@ -13331,13 +13331,13 @@
         <v>2.6945807499811E13</v>
       </c>
       <c r="AM93" s="13" t="n">
-        <v>3.0710860536704E13</v>
+        <v>3.0694504744478E13</v>
       </c>
       <c r="AN93" s="13" t="n">
         <v>3.1235904840573E13</v>
       </c>
       <c r="AO93" s="13" t="n">
-        <v>3.3547066250926E13</v>
+        <v>3.3539266312098E13</v>
       </c>
       <c r="AP93" s="13" t="n">
         <v>3.1766864197618E13</v>
@@ -13465,13 +13465,13 @@
         <v>1.8831060894732E13</v>
       </c>
       <c r="AM94" s="13" t="n">
-        <v>2.2272243781698E13</v>
+        <v>2.2257484150924E13</v>
       </c>
       <c r="AN94" s="13" t="n">
         <v>2.2518183337941E13</v>
       </c>
       <c r="AO94" s="13" t="n">
-        <v>2.5424241320557E13</v>
+        <v>2.5418052222658E13</v>
       </c>
       <c r="AP94" s="13" t="n">
         <v>2.3584028863377E13</v>
@@ -13599,13 +13599,13 @@
         <v>1.8685527183076E13</v>
       </c>
       <c r="AM95" s="13" t="n">
-        <v>2.2135592733993E13</v>
+        <v>2.2121016257624E13</v>
       </c>
       <c r="AN95" s="13" t="n">
         <v>2.2392176474722E13</v>
       </c>
       <c r="AO95" s="13" t="n">
-        <v>2.5306012961548E13</v>
+        <v>2.5301218087622E13</v>
       </c>
       <c r="AP95" s="13" t="n">
         <v>2.3476490014519E13</v>
@@ -13867,13 +13867,13 @@
         <v>3.184630015012E12</v>
       </c>
       <c r="AM97" s="13" t="n">
-        <v>3.830703977689E12</v>
+        <v>3.826012923092E12</v>
       </c>
       <c r="AN97" s="13" t="n">
         <v>4.198925482396E12</v>
       </c>
       <c r="AO97" s="13" t="n">
-        <v>4.500678222519E12</v>
+        <v>4.508235110741E12</v>
       </c>
       <c r="AP97" s="13" t="n">
         <v>4.06014546014E12</v>
@@ -14135,13 +14135,13 @@
         <v>3.184630015012E12</v>
       </c>
       <c r="AM99" s="13" t="n">
-        <v>3.830703977689E12</v>
+        <v>3.826012923092E12</v>
       </c>
       <c r="AN99" s="13" t="n">
         <v>4.198925482396E12</v>
       </c>
       <c r="AO99" s="13" t="n">
-        <v>4.500678222519E12</v>
+        <v>4.508235110741E12</v>
       </c>
       <c r="AP99" s="13" t="n">
         <v>4.06014546014E12</v>
@@ -14269,13 +14269,13 @@
         <v>4.47922610796E11</v>
       </c>
       <c r="AM100" s="13" t="n">
-        <v>5.42813418744E11</v>
+        <v>5.41576566668E11</v>
       </c>
       <c r="AN100" s="13" t="n">
         <v>6.67610319515E11</v>
       </c>
       <c r="AO100" s="13" t="n">
-        <v>7.4023727187E11</v>
+        <v>7.40204611388E11</v>
       </c>
       <c r="AP100" s="13" t="n">
         <v>7.10524317878E11</v>
@@ -14403,13 +14403,13 @@
         <v>2.01782252611E11</v>
       </c>
       <c r="AM101" s="13" t="n">
-        <v>1.50687214608E11</v>
+        <v>1.50379352013E11</v>
       </c>
       <c r="AN101" s="13" t="n">
         <v>1.55270603379E11</v>
       </c>
       <c r="AO101" s="13" t="n">
-        <v>1.32413333376E11</v>
+        <v>1.31670009814E11</v>
       </c>
       <c r="AP101" s="13" t="n">
         <v>1.63377958588E11</v>
@@ -14537,13 +14537,13 @@
         <v>4.15216131961E11</v>
       </c>
       <c r="AM102" s="13" t="n">
-        <v>2.62019585369E11</v>
+        <v>2.61758482198E11</v>
       </c>
       <c r="AN102" s="13" t="n">
         <v>2.25926638083E11</v>
       </c>
       <c r="AO102" s="13" t="n">
-        <v>2.32603598401E11</v>
+        <v>2.32388554932E11</v>
       </c>
       <c r="AP102" s="13" t="n">
         <v>3.05696125237E11</v>
@@ -14677,7 +14677,7 @@
         <v>1.44251805995E11</v>
       </c>
       <c r="AO103" s="13" t="n">
-        <v>1.02714276474E11</v>
+        <v>1.01581841901E11</v>
       </c>
       <c r="AP103" s="13" t="n">
         <v>7.0123012676E10</v>
@@ -15073,13 +15073,13 @@
         <v>2.9889201296E10</v>
       </c>
       <c r="AM106" s="13" t="n">
-        <v>3.20136155E10</v>
+        <v>3.2214413948E10</v>
       </c>
       <c r="AN106" s="13" t="n">
         <v>3.3498943826E10</v>
       </c>
       <c r="AO106" s="13" t="n">
-        <v>3.4440652222E10</v>
+        <v>3.5834876195E10</v>
       </c>
       <c r="AP106" s="13" t="n">
         <v>3.0709164178E10</v>
@@ -15341,13 +15341,13 @@
         <v>8.6418755587E10</v>
       </c>
       <c r="AM108" s="13" t="n">
-        <v>1.09625338575E11</v>
+        <v>1.09645338575E11</v>
       </c>
       <c r="AN108" s="13" t="n">
         <v>9.556493313E10</v>
       </c>
       <c r="AO108" s="13" t="n">
-        <v>8.6940524877E10</v>
+        <v>8.7290296533E10</v>
       </c>
       <c r="AP108" s="13" t="n">
         <v>1.11114535683E11</v>
@@ -16413,13 +16413,13 @@
         <v>1.423344559709E13</v>
       </c>
       <c r="AM116" s="13" t="n">
-        <v>1.6187591364067E13</v>
+        <v>1.6179290961689E13</v>
       </c>
       <c r="AN116" s="13" t="n">
         <v>1.5896246020295E13</v>
       </c>
       <c r="AO116" s="13" t="n">
-        <v>1.8302561785851E13</v>
+        <v>1.829058949016E13</v>
       </c>
       <c r="AP116" s="13" t="n">
         <v>1.7802879951675E13</v>
@@ -16547,7 +16547,7 @@
         <v>5.65931676021E12</v>
       </c>
       <c r="AM117" s="13" t="n">
-        <v>8.234586627841E12</v>
+        <v>8.209968518625E12</v>
       </c>
       <c r="AN117" s="13" t="n">
         <v>8.518808940748E12</v>
@@ -16815,13 +16815,13 @@
         <v>8.148152382994E12</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>7.502795322939E12</v>
+        <v>7.519307559431E12</v>
       </c>
       <c r="AN119" s="13" t="n">
         <v>6.903555947909E12</v>
       </c>
       <c r="AO119" s="13" t="n">
-        <v>9.480074808965E12</v>
+        <v>9.468102513274E12</v>
       </c>
       <c r="AP119" s="13" t="n">
         <v>9.597552508658E12</v>
@@ -16949,7 +16949,7 @@
         <v>4.25976453886E11</v>
       </c>
       <c r="AM120" s="13" t="n">
-        <v>4.50209413287E11</v>
+        <v>4.50014883633E11</v>
       </c>
       <c r="AN120" s="13" t="n">
         <v>4.73881131638E11</v>
@@ -17351,13 +17351,13 @@
         <v>1.45533711656E11</v>
       </c>
       <c r="AM123" s="13" t="n">
-        <v>1.36651047705E11</v>
+        <v>1.364678933E11</v>
       </c>
       <c r="AN123" s="13" t="n">
         <v>1.26006863219E11</v>
       </c>
       <c r="AO123" s="13" t="n">
-        <v>1.18228359009E11</v>
+        <v>1.16834135036E11</v>
       </c>
       <c r="AP123" s="13" t="n">
         <v>1.07538848858E11</v>
@@ -19227,13 +19227,13 @@
         <v>1.0737586951E11</v>
       </c>
       <c r="AM137" s="13" t="n">
-        <v>9.9293622837E10</v>
+        <v>9.9110468432E10</v>
       </c>
       <c r="AN137" s="13" t="n">
         <v>8.8595187129E10</v>
       </c>
       <c r="AO137" s="13" t="n">
-        <v>8.0885225839E10</v>
+        <v>7.9491001866E10</v>
       </c>
       <c r="AP137" s="13" t="n">
         <v>7.0230882355E10</v>
@@ -19500,13 +19500,13 @@
         <v>8.114746605079E12</v>
       </c>
       <c r="AM140" s="13" t="n">
-        <v>8.438616755006E12</v>
+        <v>8.437020593554E12</v>
       </c>
       <c r="AN140" s="13" t="n">
         <v>8.717721502632E12</v>
       </c>
       <c r="AO140" s="13" t="n">
-        <v>8.122824930369E12</v>
+        <v>8.12121408944E12</v>
       </c>
       <c r="AP140" s="13" t="n">
         <v>8.182835334241E12</v>
@@ -21022,13 +21022,13 @@
         <v>3.57195890994E11</v>
       </c>
       <c r="AM152" s="13" t="n">
-        <v>3.72751916932E11</v>
+        <v>3.72773871337E11</v>
       </c>
       <c r="AN152" s="13" t="n">
         <v>3.81835524172E11</v>
       </c>
       <c r="AO152" s="13" t="n">
-        <v>3.86064208871E11</v>
+        <v>3.85981945313E11</v>
       </c>
       <c r="AP152" s="13" t="n">
         <v>3.96504060718E11</v>
@@ -21156,13 +21156,13 @@
         <v>1.189343214466E12</v>
       </c>
       <c r="AM153" s="13" t="n">
-        <v>1.485935033388E12</v>
+        <v>1.484322994318E12</v>
       </c>
       <c r="AN153" s="13" t="n">
         <v>1.745742141416E12</v>
       </c>
       <c r="AO153" s="13" t="n">
-        <v>1.148352168279E12</v>
+        <v>1.146793617823E12</v>
       </c>
       <c r="AP153" s="13" t="n">
         <v>1.188692049722E12</v>
@@ -21290,13 +21290,13 @@
         <v>2.56066115779E11</v>
       </c>
       <c r="AM154" s="13" t="n">
-        <v>1.13864644302E12</v>
+        <v>1.138646443021E12</v>
       </c>
       <c r="AN154" s="13" t="n">
         <v>1.13265235667E12</v>
       </c>
       <c r="AO154" s="13" t="n">
-        <v>3.82989066882E11</v>
+        <v>3.83241358992E11</v>
       </c>
       <c r="AP154" s="13" t="n">
         <v>3.8334903119E11</v>
@@ -21424,13 +21424,13 @@
         <v>9.33277098687E11</v>
       </c>
       <c r="AM155" s="13" t="n">
-        <v>3.47288590368E11</v>
+        <v>3.45676551297E11</v>
       </c>
       <c r="AN155" s="13" t="n">
         <v>6.13089784746E11</v>
       </c>
       <c r="AO155" s="13" t="n">
-        <v>7.65363101397E11</v>
+        <v>7.63552258831E11</v>
       </c>
       <c r="AP155" s="13" t="n">
         <v>8.05343018532E11</v>
@@ -21692,13 +21692,13 @@
         <v>3.29918156689E11</v>
       </c>
       <c r="AM157" s="13" t="n">
-        <v>3.41640461756E11</v>
+        <v>3.41634384969E11</v>
       </c>
       <c r="AN157" s="13" t="n">
         <v>3.51854494114E11</v>
       </c>
       <c r="AO157" s="13" t="n">
-        <v>3.50119210289E11</v>
+        <v>3.50149183374E11</v>
       </c>
       <c r="AP157" s="13" t="n">
         <v>3.59349880871E11</v>
@@ -22496,13 +22496,13 @@
         <v>2.6945807499811E13</v>
       </c>
       <c r="AM163" s="13" t="n">
-        <v>3.0710860536704E13</v>
+        <v>3.0694504744478E13</v>
       </c>
       <c r="AN163" s="13" t="n">
         <v>3.1235904840573E13</v>
       </c>
       <c r="AO163" s="13" t="n">
-        <v>3.3547066250926E13</v>
+        <v>3.3539266312098E13</v>
       </c>
       <c r="AP163" s="13" t="n">
         <v>3.1766864197618E13</v>
@@ -22914,7 +22914,7 @@
         <v>3.579380380743E12</v>
       </c>
       <c r="AM12" s="17" t="n">
-        <v>5.878930811044E12</v>
+        <v>5.853695322755E12</v>
       </c>
       <c r="AN12" s="17" t="n">
         <v>4.522797553844E12</v>
@@ -23048,7 +23048,7 @@
         <v>2.605122058398E12</v>
       </c>
       <c r="AM13" s="17" t="n">
-        <v>4.216777257528E12</v>
+        <v>4.191541769239E12</v>
       </c>
       <c r="AN13" s="17" t="n">
         <v>2.877921268479E12</v>
@@ -23444,19 +23444,19 @@
         <v>-1.650599093202E12</v>
       </c>
       <c r="AK16" s="17" t="n">
-        <v>-1.785597014854E12</v>
+        <v>-1.785609426656E12</v>
       </c>
       <c r="AL16" s="17" t="n">
         <v>-2.167268870378E12</v>
       </c>
       <c r="AM16" s="17" t="n">
-        <v>-4.245867381556E12</v>
+        <v>-4.221864312125E12</v>
       </c>
       <c r="AN16" s="17" t="n">
         <v>-2.982977885018E12</v>
       </c>
       <c r="AO16" s="17" t="n">
-        <v>-2.792542195944E12</v>
+        <v>-2.792458862611E12</v>
       </c>
       <c r="AP16" s="17" t="n">
         <v>-2.640577537748E12</v>
@@ -23572,19 +23572,19 @@
         <v>-1.720244662185E12</v>
       </c>
       <c r="AI17" s="17" t="n">
-        <v>-1.759138088087E12</v>
+        <v>-2.275121637984E12</v>
       </c>
       <c r="AJ17" s="17" t="n">
         <v>-1.594421300995E12</v>
       </c>
       <c r="AK17" s="17" t="n">
-        <v>-1.764574070542E12</v>
+        <v>-1.75999495596E12</v>
       </c>
       <c r="AL17" s="17" t="n">
         <v>-2.053632868544E12</v>
       </c>
       <c r="AM17" s="17" t="n">
-        <v>-4.144578644599E12</v>
+        <v>-4.138796121786E12</v>
       </c>
       <c r="AN17" s="17" t="n">
         <v>-2.92344014278E12</v>
@@ -23706,25 +23706,25 @@
         <v>1.24640646389E11</v>
       </c>
       <c r="AI18" s="17" t="n">
-        <v>-5.89096300848E11</v>
+        <v>-7.3112750951E10</v>
       </c>
       <c r="AJ18" s="17" t="n">
         <v>-5.6177792207E10</v>
       </c>
       <c r="AK18" s="17" t="n">
-        <v>-2.1022944312E10</v>
+        <v>-2.5614470696E10</v>
       </c>
       <c r="AL18" s="17" t="n">
         <v>-1.13636001834E11</v>
       </c>
       <c r="AM18" s="17" t="n">
-        <v>-1.01288736957E11</v>
+        <v>-8.3068190339E10</v>
       </c>
       <c r="AN18" s="17" t="n">
         <v>-5.9537742238E10</v>
       </c>
       <c r="AO18" s="17" t="n">
-        <v>-7.2430290115E10</v>
+        <v>-7.2346956782E10</v>
       </c>
       <c r="AP18" s="17" t="n">
         <v>-8.6896008488E10</v>
@@ -24248,19 +24248,19 @@
         <v>1.319967350091E12</v>
       </c>
       <c r="AK22" s="17" t="n">
-        <v>1.498551875322E12</v>
+        <v>1.49853946352E12</v>
       </c>
       <c r="AL22" s="17" t="n">
         <v>1.412111510365E12</v>
       </c>
       <c r="AM22" s="17" t="n">
-        <v>1.633063429488E12</v>
+        <v>1.63183101063E12</v>
       </c>
       <c r="AN22" s="17" t="n">
         <v>1.539819668826E12</v>
       </c>
       <c r="AO22" s="17" t="n">
-        <v>1.613556091924E12</v>
+        <v>1.613639425257E12</v>
       </c>
       <c r="AP22" s="17" t="n">
         <v>1.66423266645E12</v>
@@ -24376,7 +24376,7 @@
         <v>2.74502053566E11</v>
       </c>
       <c r="AI23" s="17" t="n">
-        <v>2.61703804212E11</v>
+        <v>2.21545800083E11</v>
       </c>
       <c r="AJ23" s="17" t="n">
         <v>2.25784381676E11</v>
@@ -24388,13 +24388,13 @@
         <v>2.21703941168E11</v>
       </c>
       <c r="AM23" s="17" t="n">
-        <v>2.32978634242E11</v>
+        <v>2.32662504982E11</v>
       </c>
       <c r="AN23" s="17" t="n">
         <v>2.39807574659E11</v>
       </c>
       <c r="AO23" s="17" t="n">
-        <v>2.67254721915E11</v>
+        <v>2.67287382397E11</v>
       </c>
       <c r="AP23" s="17" t="n">
         <v>3.50459580668E11</v>
@@ -24510,7 +24510,7 @@
         <v>2.67522496697E11</v>
       </c>
       <c r="AI24" s="17" t="n">
-        <v>2.47435269883E11</v>
+        <v>2.06371909799E11</v>
       </c>
       <c r="AJ24" s="17" t="n">
         <v>2.09969959603E11</v>
@@ -24522,13 +24522,13 @@
         <v>1.94921346434E11</v>
       </c>
       <c r="AM24" s="17" t="n">
-        <v>2.07910511812E11</v>
+        <v>2.07594382552E11</v>
       </c>
       <c r="AN24" s="17" t="n">
         <v>1.93731140922E11</v>
       </c>
       <c r="AO24" s="17" t="n">
-        <v>2.16265493817E11</v>
+        <v>2.16298154299E11</v>
       </c>
       <c r="AP24" s="17" t="n">
         <v>2.8538306311E11</v>
@@ -24644,7 +24644,7 @@
         <v>6.979556869E9</v>
       </c>
       <c r="AI25" s="17" t="n">
-        <v>1.4268534329E10</v>
+        <v>1.5173890284E10</v>
       </c>
       <c r="AJ25" s="17" t="n">
         <v>1.5814422073E10</v>
@@ -25046,7 +25046,7 @@
         <v>6.979556869E9</v>
       </c>
       <c r="AI28" s="17" t="n">
-        <v>1.4268534329E10</v>
+        <v>1.5173890284E10</v>
       </c>
       <c r="AJ28" s="17" t="n">
         <v>1.5814422073E10</v>
@@ -25180,25 +25180,25 @@
         <v>1.537153390388E12</v>
       </c>
       <c r="AI29" s="17" t="n">
-        <v>1.645545151359E12</v>
+        <v>1.60538714723E12</v>
       </c>
       <c r="AJ29" s="17" t="n">
         <v>1.545751731767E12</v>
       </c>
       <c r="AK29" s="17" t="n">
-        <v>1.72971921758E12</v>
+        <v>1.729706805778E12</v>
       </c>
       <c r="AL29" s="17" t="n">
         <v>1.633815451533E12</v>
       </c>
       <c r="AM29" s="17" t="n">
-        <v>1.86604206373E12</v>
+        <v>1.864493515612E12</v>
       </c>
       <c r="AN29" s="17" t="n">
         <v>1.779627243485E12</v>
       </c>
       <c r="AO29" s="17" t="n">
-        <v>1.880810813839E12</v>
+        <v>1.880926807654E12</v>
       </c>
       <c r="AP29" s="17" t="n">
         <v>2.014692247118E12</v>
@@ -25332,7 +25332,7 @@
         <v>-1.449812654434E12</v>
       </c>
       <c r="AO30" s="17" t="n">
-        <v>-7.91080854113E11</v>
+        <v>-8.36589652151E11</v>
       </c>
       <c r="AP30" s="17" t="n">
         <v>-9.48697779925E11</v>
@@ -25850,7 +25850,7 @@
         <v>1.4847264388E10</v>
       </c>
       <c r="AI34" s="17" t="n">
-        <v>2.226940569E9</v>
+        <v>6.886077384E9</v>
       </c>
       <c r="AJ34" s="17" t="n">
         <v>2.018007847E9</v>
@@ -25862,7 +25862,7 @@
         <v>3.69936917E8</v>
       </c>
       <c r="AM34" s="17" t="n">
-        <v>1.22165364E9</v>
+        <v>3.756875934E9</v>
       </c>
       <c r="AN34" s="17" t="n">
         <v>5.296531481E9</v>
@@ -25984,7 +25984,7 @@
         <v>-2.978390931E9</v>
       </c>
       <c r="AI35" s="17" t="n">
-        <v>6.886077384E9</v>
+        <v>2.226940569E9</v>
       </c>
       <c r="AJ35" s="17" t="n">
         <v>1.7401074025E10</v>
@@ -25996,7 +25996,7 @@
         <v>3.33069897E8</v>
       </c>
       <c r="AM35" s="17" t="n">
-        <v>3.756875934E9</v>
+        <v>1.22165364E9</v>
       </c>
       <c r="AN35" s="17" t="n">
         <v>1.254989192E9</v>
@@ -26136,7 +26136,7 @@
         <v>1.409218741446E12</v>
       </c>
       <c r="AO36" s="17" t="n">
-        <v>5.31019908421E11</v>
+        <v>5.76528706459E11</v>
       </c>
       <c r="AP36" s="17" t="n">
         <v>6.05366726106E11</v>
@@ -26526,19 +26526,19 @@
         <v>-5.0359338371E10</v>
       </c>
       <c r="AK39" s="17" t="n">
-        <v>-1.50476411478E11</v>
+        <v>-1.50476411476E11</v>
       </c>
       <c r="AL39" s="17" t="n">
         <v>3.0530789425E10</v>
       </c>
       <c r="AM39" s="17" t="n">
-        <v>-1.43151083098E11</v>
+        <v>-1.44932149137E11</v>
       </c>
       <c r="AN39" s="17" t="n">
         <v>-4.7545979156E10</v>
       </c>
       <c r="AO39" s="17" t="n">
-        <v>-3.42202532447E11</v>
+        <v>-3.41555269543E11</v>
       </c>
       <c r="AP39" s="17" t="n">
         <v>-1.52499533419E11</v>
@@ -26660,19 +26660,19 @@
         <v>-5.0359338371E10</v>
       </c>
       <c r="AK40" s="17" t="n">
-        <v>-1.50476411478E11</v>
+        <v>-1.50476411476E11</v>
       </c>
       <c r="AL40" s="17" t="n">
         <v>3.0530789425E10</v>
       </c>
       <c r="AM40" s="17" t="n">
-        <v>-1.43151083098E11</v>
+        <v>-1.44932149137E11</v>
       </c>
       <c r="AN40" s="17" t="n">
         <v>-4.7545979156E10</v>
       </c>
       <c r="AO40" s="17" t="n">
-        <v>-3.42202532447E11</v>
+        <v>-3.41555269543E11</v>
       </c>
       <c r="AP40" s="17" t="n">
         <v>-1.52499533419E11</v>
@@ -26928,19 +26928,19 @@
         <v>-5.94323641187E11</v>
       </c>
       <c r="AK42" s="17" t="n">
-        <v>-5.94344878798E11</v>
+        <v>-5.94344878796E11</v>
       </c>
       <c r="AL42" s="17" t="n">
         <v>-5.44455428126E11</v>
       </c>
       <c r="AM42" s="17" t="n">
-        <v>-6.57555127557E11</v>
+        <v>-6.59336193596E11</v>
       </c>
       <c r="AN42" s="17" t="n">
         <v>-6.03109273237E11</v>
       </c>
       <c r="AO42" s="17" t="n">
-        <v>-8.63837036773E11</v>
+        <v>-8.63189773869E11</v>
       </c>
       <c r="AP42" s="17" t="n">
         <v>-8.02191521776E11</v>
@@ -27202,7 +27202,7 @@
         <v>-1.8212906813E10</v>
       </c>
       <c r="AM44" s="17" t="n">
-        <v>-2.4232959401E10</v>
+        <v>-2.4038429747E10</v>
       </c>
       <c r="AN44" s="17" t="n">
         <v>-2.3866248005E10</v>
@@ -27324,25 +27324,25 @@
         <v>-7.46664164911E11</v>
       </c>
       <c r="AI45" s="17" t="n">
-        <v>-7.63354172948E11</v>
+        <v>-7.22290812863E11</v>
       </c>
       <c r="AJ45" s="17" t="n">
         <v>-7.07392025771E11</v>
       </c>
       <c r="AK45" s="17" t="n">
-        <v>-8.7480226005E11</v>
+        <v>-8.73328884869E11</v>
       </c>
       <c r="AL45" s="17" t="n">
         <v>-8.68232353264E11</v>
       </c>
       <c r="AM45" s="17" t="n">
-        <v>-8.23720604461E11</v>
+        <v>-8.22419165514E11</v>
       </c>
       <c r="AN45" s="17" t="n">
         <v>-9.16871256441E11</v>
       </c>
       <c r="AO45" s="17" t="n">
-        <v>-9.15841542842E11</v>
+        <v>-9.18783462094E11</v>
       </c>
       <c r="AP45" s="17" t="n">
         <v>-1.16077454238E12</v>
@@ -27458,25 +27458,25 @@
         <v>-6.22882663918E11</v>
       </c>
       <c r="AI46" s="17" t="n">
-        <v>-5.76211161429E11</v>
+        <v>-5.76211161428E11</v>
       </c>
       <c r="AJ46" s="17" t="n">
         <v>-6.06175885518E11</v>
       </c>
       <c r="AK46" s="17" t="n">
-        <v>-7.04505870993E11</v>
+        <v>-7.03032495812E11</v>
       </c>
       <c r="AL46" s="17" t="n">
         <v>-7.45948338021E11</v>
       </c>
       <c r="AM46" s="17" t="n">
-        <v>-6.7401096029E11</v>
+        <v>-6.72709521343E11</v>
       </c>
       <c r="AN46" s="17" t="n">
         <v>-7.74217032969E11</v>
       </c>
       <c r="AO46" s="17" t="n">
-        <v>-8.06729539112E11</v>
+        <v>-8.09671458364E11</v>
       </c>
       <c r="AP46" s="17" t="n">
         <v>-8.89379260298E11</v>
@@ -27598,19 +27598,19 @@
         <v>-1.37133958927E11</v>
       </c>
       <c r="AK47" s="17" t="n">
-        <v>-1.63675878634E11</v>
+        <v>-1.62204230816E11</v>
       </c>
       <c r="AL47" s="17" t="n">
         <v>-1.54280378288E11</v>
       </c>
       <c r="AM47" s="17" t="n">
-        <v>-1.60020790084E11</v>
+        <v>-1.69052024175E11</v>
       </c>
       <c r="AN47" s="17" t="n">
         <v>-1.62285337546E11</v>
       </c>
       <c r="AO47" s="17" t="n">
-        <v>-1.53486909214E11</v>
+        <v>-1.55180103971E11</v>
       </c>
       <c r="AP47" s="17" t="n">
         <v>-1.51859103668E11</v>
@@ -28396,25 +28396,25 @@
         <v>-4.80689146277E11</v>
       </c>
       <c r="AI53" s="17" t="n">
-        <v>-4.28974237154E11</v>
+        <v>-4.28974237153E11</v>
       </c>
       <c r="AJ53" s="17" t="n">
         <v>-4.69041926591E11</v>
       </c>
       <c r="AK53" s="17" t="n">
-        <v>-5.40829992359E11</v>
+        <v>-5.40828264996E11</v>
       </c>
       <c r="AL53" s="17" t="n">
         <v>-5.91667959733E11</v>
       </c>
       <c r="AM53" s="17" t="n">
-        <v>-5.13990170206E11</v>
+        <v>-5.03657497168E11</v>
       </c>
       <c r="AN53" s="17" t="n">
         <v>-6.11931695423E11</v>
       </c>
       <c r="AO53" s="17" t="n">
-        <v>-6.53242629898E11</v>
+        <v>-6.54491354393E11</v>
       </c>
       <c r="AP53" s="17" t="n">
         <v>-7.3752015663E11</v>
@@ -28530,7 +28530,7 @@
         <v>-1.10676826293E11</v>
       </c>
       <c r="AI54" s="17" t="n">
-        <v>-1.69969836124E11</v>
+        <v>-1.2890647604E11</v>
       </c>
       <c r="AJ54" s="17" t="n">
         <v>-9.0822746311E10</v>
@@ -28932,25 +28932,25 @@
         <v>-1.36987279262E12</v>
       </c>
       <c r="AI57" s="17" t="n">
-        <v>-1.403377307362E12</v>
+        <v>-1.362313947277E12</v>
       </c>
       <c r="AJ57" s="17" t="n">
         <v>-1.320444646979E12</v>
       </c>
       <c r="AK57" s="17" t="n">
-        <v>-1.475206100721E12</v>
+        <v>-1.473732725538E12</v>
       </c>
       <c r="AL57" s="17" t="n">
         <v>-1.424900688203E12</v>
       </c>
       <c r="AM57" s="17" t="n">
-        <v>-1.505508691419E12</v>
+        <v>-1.505793788857E12</v>
       </c>
       <c r="AN57" s="17" t="n">
         <v>-1.543846777683E12</v>
       </c>
       <c r="AO57" s="17" t="n">
-        <v>-1.7618479708E12</v>
+        <v>-1.764142627148E12</v>
       </c>
       <c r="AP57" s="17" t="n">
         <v>-1.885185630423E12</v>
@@ -29066,25 +29066,25 @@
         <v>1.67280597768E11</v>
       </c>
       <c r="AI58" s="17" t="n">
-        <v>2.42167843997E11</v>
+        <v>2.43073199953E11</v>
       </c>
       <c r="AJ58" s="17" t="n">
         <v>2.25307084788E11</v>
       </c>
       <c r="AK58" s="17" t="n">
-        <v>2.54513116859E11</v>
+        <v>2.5597408024E11</v>
       </c>
       <c r="AL58" s="17" t="n">
         <v>2.0891476333E11</v>
       </c>
       <c r="AM58" s="17" t="n">
-        <v>3.60533372311E11</v>
+        <v>3.58699726755E11</v>
       </c>
       <c r="AN58" s="17" t="n">
         <v>2.35780465802E11</v>
       </c>
       <c r="AO58" s="17" t="n">
-        <v>1.18962843039E11</v>
+        <v>1.16784180506E11</v>
       </c>
       <c r="AP58" s="17" t="n">
         <v>1.29506616695E11</v>
@@ -30004,25 +30004,25 @@
         <v>1.8443896568E11</v>
       </c>
       <c r="AI65" s="17" t="n">
-        <v>2.10416832691E11</v>
+        <v>2.10418768142E11</v>
       </c>
       <c r="AJ65" s="17" t="n">
         <v>2.91110838129E11</v>
       </c>
       <c r="AK65" s="17" t="n">
-        <v>2.48258656548E11</v>
+        <v>2.37203370343E11</v>
       </c>
       <c r="AL65" s="17" t="n">
         <v>1.96308080983E11</v>
       </c>
       <c r="AM65" s="17" t="n">
-        <v>2.18198668678E11</v>
+        <v>2.18198554604E11</v>
       </c>
       <c r="AN65" s="17" t="n">
         <v>2.3085956933E11</v>
       </c>
       <c r="AO65" s="17" t="n">
-        <v>2.34918084515E11</v>
+        <v>2.335748751E11</v>
       </c>
       <c r="AP65" s="17" t="n">
         <v>1.90561781354E11</v>
@@ -30144,19 +30144,19 @@
         <v>3.57493736205E11</v>
       </c>
       <c r="AK66" s="17" t="n">
-        <v>3.46269273981E11</v>
+        <v>3.35213987776E11</v>
       </c>
       <c r="AL66" s="17" t="n">
         <v>3.33881683524E11</v>
       </c>
       <c r="AM66" s="17" t="n">
-        <v>3.13713126042E11</v>
+        <v>3.13713126193E11</v>
       </c>
       <c r="AN66" s="17" t="n">
         <v>3.2893184565E11</v>
       </c>
       <c r="AO66" s="17" t="n">
-        <v>3.28453204875E11</v>
+        <v>3.2711150038E11</v>
       </c>
       <c r="AP66" s="17" t="n">
         <v>3.49779984747E11</v>
@@ -30272,7 +30272,7 @@
         <v>-8.2003419795E10</v>
       </c>
       <c r="AI67" s="17" t="n">
-        <v>-9.2552845745E10</v>
+        <v>-9.2550910294E10</v>
       </c>
       <c r="AJ67" s="17" t="n">
         <v>-6.6382898076E10</v>
@@ -30284,13 +30284,13 @@
         <v>-1.37573602541E11</v>
       </c>
       <c r="AM67" s="17" t="n">
-        <v>-9.5514457364E10</v>
+        <v>-9.5514571589E10</v>
       </c>
       <c r="AN67" s="17" t="n">
         <v>-9.807227632E10</v>
       </c>
       <c r="AO67" s="17" t="n">
-        <v>-9.353512036E10</v>
+        <v>-9.353662528E10</v>
       </c>
       <c r="AP67" s="17" t="n">
         <v>-1.59218203393E11</v>
@@ -30540,19 +30540,19 @@
         <v>9.4848073645E10</v>
       </c>
       <c r="AI69" s="17" t="n">
-        <v>2.2263045425E10</v>
+        <v>2.2142785175E10</v>
       </c>
       <c r="AJ69" s="17" t="n">
         <v>2.9043586065E10</v>
       </c>
       <c r="AK69" s="17" t="n">
-        <v>2.1522141935E10</v>
+        <v>2.0499193849E10</v>
       </c>
       <c r="AL69" s="17" t="n">
         <v>3.174414569E10</v>
       </c>
       <c r="AM69" s="17" t="n">
-        <v>2.7346887435E10</v>
+        <v>2.7192167899E10</v>
       </c>
       <c r="AN69" s="17" t="n">
         <v>2.7445579121E10</v>
@@ -30680,13 +30680,13 @@
         <v>5.1347087171E10</v>
       </c>
       <c r="AK70" s="17" t="n">
-        <v>4.3282035482E10</v>
+        <v>4.2259087396E10</v>
       </c>
       <c r="AL70" s="17" t="n">
         <v>5.4057670947E10</v>
       </c>
       <c r="AM70" s="17" t="n">
-        <v>4.778620994E10</v>
+        <v>4.7768562896E10</v>
       </c>
       <c r="AN70" s="17" t="n">
         <v>4.9119589794E10</v>
@@ -30808,7 +30808,7 @@
         <v>-2.20710931022E11</v>
       </c>
       <c r="AI71" s="17" t="n">
-        <v>-2.4751844242E10</v>
+        <v>-2.4872104492E10</v>
       </c>
       <c r="AJ71" s="17" t="n">
         <v>-2.2303501106E10</v>
@@ -30820,7 +30820,7 @@
         <v>-2.2313525257E10</v>
       </c>
       <c r="AM71" s="17" t="n">
-        <v>-2.0439322505E10</v>
+        <v>-2.0576394997E10</v>
       </c>
       <c r="AN71" s="17" t="n">
         <v>-2.1674010673E10</v>
@@ -31076,25 +31076,25 @@
         <v>-1.84994936567E11</v>
       </c>
       <c r="AI73" s="17" t="n">
-        <v>-1.60967419524E11</v>
+        <v>-1.61526493275E11</v>
       </c>
       <c r="AJ73" s="17" t="n">
         <v>-1.72338422003E11</v>
       </c>
       <c r="AK73" s="17" t="n">
-        <v>-1.69053788204E11</v>
+        <v>-1.68030408277E11</v>
       </c>
       <c r="AL73" s="17" t="n">
         <v>-2.19473269944E11</v>
       </c>
       <c r="AM73" s="17" t="n">
-        <v>-1.61012803106E11</v>
+        <v>-1.60980508467E11</v>
       </c>
       <c r="AN73" s="17" t="n">
         <v>-1.57545731887E11</v>
       </c>
       <c r="AO73" s="17" t="n">
-        <v>-1.8246862558E11</v>
+        <v>-1.81300839029E11</v>
       </c>
       <c r="AP73" s="17" t="n">
         <v>-2.12552142175E11</v>
@@ -31210,25 +31210,25 @@
         <v>-1.84994936567E11</v>
       </c>
       <c r="AI74" s="17" t="n">
-        <v>-1.60967419524E11</v>
+        <v>-1.61526493275E11</v>
       </c>
       <c r="AJ74" s="17" t="n">
         <v>-1.72338422003E11</v>
       </c>
       <c r="AK74" s="17" t="n">
-        <v>-1.69053788204E11</v>
+        <v>-1.68030408277E11</v>
       </c>
       <c r="AL74" s="17" t="n">
         <v>-2.19473269944E11</v>
       </c>
       <c r="AM74" s="17" t="n">
-        <v>-1.61012803106E11</v>
+        <v>-1.60980508467E11</v>
       </c>
       <c r="AN74" s="17" t="n">
         <v>-1.57545731887E11</v>
       </c>
       <c r="AO74" s="17" t="n">
-        <v>-1.8246862558E11</v>
+        <v>-1.81300839029E11</v>
       </c>
       <c r="AP74" s="17" t="n">
         <v>-2.12552142175E11</v>
@@ -31612,25 +31612,25 @@
         <v>-1.7714338799E10</v>
       </c>
       <c r="AI77" s="17" t="n">
-        <v>8.1200424473E10</v>
+        <v>8.1546706678E10</v>
       </c>
       <c r="AJ77" s="17" t="n">
         <v>5.2968662785E10</v>
       </c>
       <c r="AK77" s="17" t="n">
-        <v>8.5459328655E10</v>
+        <v>8.7943671963E10</v>
       </c>
       <c r="AL77" s="17" t="n">
         <v>-1.0558506614E10</v>
       </c>
       <c r="AM77" s="17" t="n">
-        <v>1.99520569205E11</v>
+        <v>1.97719218288E11</v>
       </c>
       <c r="AN77" s="17" t="n">
         <v>7.8234733915E10</v>
       </c>
       <c r="AO77" s="17" t="n">
-        <v>-6.3505782541E10</v>
+        <v>-6.4516658523E10</v>
       </c>
       <c r="AP77" s="17" t="n">
         <v>-8.304552548E10</v>
@@ -31880,25 +31880,25 @@
         <v>-1.7714338799E10</v>
       </c>
       <c r="AI79" s="17" t="n">
-        <v>8.1200424473E10</v>
+        <v>8.1546706678E10</v>
       </c>
       <c r="AJ79" s="17" t="n">
         <v>5.2968662785E10</v>
       </c>
       <c r="AK79" s="17" t="n">
-        <v>8.5459328655E10</v>
+        <v>8.7943671963E10</v>
       </c>
       <c r="AL79" s="17" t="n">
         <v>-1.0558506614E10</v>
       </c>
       <c r="AM79" s="17" t="n">
-        <v>1.99520569205E11</v>
+        <v>1.97719218288E11</v>
       </c>
       <c r="AN79" s="17" t="n">
         <v>7.8234733915E10</v>
       </c>
       <c r="AO79" s="17" t="n">
-        <v>-6.3505782541E10</v>
+        <v>-6.4516658523E10</v>
       </c>
       <c r="AP79" s="17" t="n">
         <v>-8.304552548E10</v>
@@ -32148,19 +32148,19 @@
         <v>9.4848073645E10</v>
       </c>
       <c r="AI81" s="17" t="n">
-        <v>2.2263045425E10</v>
+        <v>2.2142785175E10</v>
       </c>
       <c r="AJ81" s="17" t="n">
         <v>2.9043586065E10</v>
       </c>
       <c r="AK81" s="17" t="n">
-        <v>2.1522141935E10</v>
+        <v>2.0499193849E10</v>
       </c>
       <c r="AL81" s="17" t="n">
         <v>3.174414569E10</v>
       </c>
       <c r="AM81" s="17" t="n">
-        <v>2.7346887435E10</v>
+        <v>2.7192167899E10</v>
       </c>
       <c r="AN81" s="17" t="n">
         <v>2.7445579121E10</v>
@@ -32818,25 +32818,25 @@
         <v>2.62198158678E11</v>
       </c>
       <c r="AI86" s="17" t="n">
-        <v>3.17828675771E11</v>
+        <v>3.18056633177E11</v>
       </c>
       <c r="AJ86" s="17" t="n">
         <v>3.74592886609E11</v>
       </c>
       <c r="AK86" s="17" t="n">
-        <v>3.55884343397E11</v>
+        <v>3.46290452414E11</v>
       </c>
       <c r="AL86" s="17" t="n">
         <v>2.14248383863E11</v>
       </c>
       <c r="AM86" s="17" t="n">
-        <v>4.46391553975E11</v>
+        <v>4.44419126217E11</v>
       </c>
       <c r="AN86" s="17" t="n">
         <v>3.38978356995E11</v>
       </c>
       <c r="AO86" s="17" t="n">
-        <v>1.97745785618E11</v>
+        <v>1.95391700221E11</v>
       </c>
       <c r="AP86" s="17" t="n">
         <v>1.37421607692E11</v>
@@ -33086,25 +33086,25 @@
         <v>-8.8306660323E10</v>
       </c>
       <c r="AI88" s="17" t="n">
-        <v>-4.9036839387E10</v>
+        <v>-4.9376930868E10</v>
       </c>
       <c r="AJ88" s="17" t="n">
         <v>-4.8739649287E10</v>
       </c>
       <c r="AK88" s="17" t="n">
-        <v>-5.2070348455E10</v>
+        <v>-5.0151570258E10</v>
       </c>
       <c r="AL88" s="17" t="n">
         <v>-8.3048604472E10</v>
       </c>
       <c r="AM88" s="17" t="n">
-        <v>-7.381171915E10</v>
+        <v>-7.3435452845E10</v>
       </c>
       <c r="AN88" s="17" t="n">
         <v>-5.0913329052E10</v>
       </c>
       <c r="AO88" s="17" t="n">
-        <v>-3.4093192593E10</v>
+        <v>-3.3622375514E10</v>
       </c>
       <c r="AP88" s="17" t="n">
         <v>-7.9480862708E10</v>
@@ -33220,25 +33220,25 @@
         <v>-7.4596701016E10</v>
       </c>
       <c r="AI89" s="17" t="n">
-        <v>-4.760611853E10</v>
+        <v>-4.7946210011E10</v>
       </c>
       <c r="AJ89" s="17" t="n">
         <v>-5.2257173637E10</v>
       </c>
       <c r="AK89" s="17" t="n">
-        <v>-4.8456686508E10</v>
+        <v>-4.6537908311E10</v>
       </c>
       <c r="AL89" s="17" t="n">
         <v>-8.6275174577E10</v>
       </c>
       <c r="AM89" s="17" t="n">
-        <v>-8.0324678532E10</v>
+        <v>-7.9948412227E10</v>
       </c>
       <c r="AN89" s="17" t="n">
         <v>-6.1546005589E10</v>
       </c>
       <c r="AO89" s="17" t="n">
-        <v>-2.6217664585E10</v>
+        <v>-2.5746847506E10</v>
       </c>
       <c r="AP89" s="17" t="n">
         <v>-7.2872750775E10</v>
@@ -33488,25 +33488,25 @@
         <v>1.73891498355E11</v>
       </c>
       <c r="AI91" s="17" t="n">
-        <v>2.68791836384E11</v>
+        <v>2.68679702309E11</v>
       </c>
       <c r="AJ91" s="17" t="n">
         <v>3.25853237322E11</v>
       </c>
       <c r="AK91" s="17" t="n">
-        <v>3.03813994942E11</v>
+        <v>2.96138882156E11</v>
       </c>
       <c r="AL91" s="17" t="n">
         <v>1.31199779391E11</v>
       </c>
       <c r="AM91" s="17" t="n">
-        <v>3.72579834825E11</v>
+        <v>3.70983673372E11</v>
       </c>
       <c r="AN91" s="17" t="n">
         <v>2.88065027943E11</v>
       </c>
       <c r="AO91" s="17" t="n">
-        <v>1.63652593025E11</v>
+        <v>1.61769324707E11</v>
       </c>
       <c r="AP91" s="17" t="n">
         <v>5.7940744984E10</v>
@@ -33634,13 +33634,13 @@
         <v>7.633395256E9</v>
       </c>
       <c r="AM92" s="17" t="n">
-        <v>1.1353725795E10</v>
+        <v>1.1347649008E10</v>
       </c>
       <c r="AN92" s="17" t="n">
         <v>1.1590141659E10</v>
       </c>
       <c r="AO92" s="17" t="n">
-        <v>7.150591675E9</v>
+        <v>7.160429481E9</v>
       </c>
       <c r="AP92" s="17" t="n">
         <v>6.520976002E9</v>
@@ -33756,25 +33756,25 @@
         <v>1.67267105686E11</v>
       </c>
       <c r="AI93" s="17" t="n">
-        <v>2.55455057631E11</v>
+        <v>2.55342923556E11</v>
       </c>
       <c r="AJ93" s="17" t="n">
         <v>3.10091538151E11</v>
       </c>
       <c r="AK93" s="17" t="n">
-        <v>2.9154287035E11</v>
+        <v>2.83867757564E11</v>
       </c>
       <c r="AL93" s="17" t="n">
         <v>1.23566384135E11</v>
       </c>
       <c r="AM93" s="17" t="n">
-        <v>3.6122610903E11</v>
+        <v>3.59636024364E11</v>
       </c>
       <c r="AN93" s="17" t="n">
         <v>2.76474886284E11</v>
       </c>
       <c r="AO93" s="17" t="n">
-        <v>1.5650200135E11</v>
+        <v>1.54608895226E11</v>
       </c>
       <c r="AP93" s="17" t="n">
         <v>5.1419768982E10</v>
@@ -33896,19 +33896,19 @@
         <v>1308.0</v>
       </c>
       <c r="AK94" s="17" t="n">
-        <v>1230.0</v>
+        <v>1197.0</v>
       </c>
       <c r="AL94" s="17" t="n">
         <v>521.0</v>
       </c>
       <c r="AM94" s="17" t="n">
-        <v>1524.0</v>
+        <v>1517.0</v>
       </c>
       <c r="AN94" s="17" t="n">
         <v>1166.0</v>
       </c>
       <c r="AO94" s="17" t="n">
-        <v>660.0</v>
+        <v>652.0</v>
       </c>
       <c r="AP94" s="17" t="n">
         <v>213.0</v>
@@ -34442,25 +34442,25 @@
         <v>2.63294964382E11</v>
       </c>
       <c r="AI12" s="21" t="n">
-        <v>3.17828675771E11</v>
+        <v>3.18056633177E11</v>
       </c>
       <c r="AJ12" s="21" t="n">
         <v>3.74820844015E11</v>
       </c>
       <c r="AK12" s="21" t="n">
-        <v>3.55884343397E11</v>
+        <v>3.46290452414E11</v>
       </c>
       <c r="AL12" s="21" t="n">
         <v>2.0465449288E11</v>
       </c>
       <c r="AM12" s="21" t="n">
-        <v>4.46391553975E11</v>
+        <v>4.44419126217E11</v>
       </c>
       <c r="AN12" s="21" t="n">
         <v>3.37005929237E11</v>
       </c>
       <c r="AO12" s="21" t="n">
-        <v>1.97745785618E11</v>
+        <v>1.95391700221E11</v>
       </c>
       <c r="AP12" s="21" t="n">
         <v>1.36421607692E11</v>
@@ -34850,19 +34850,19 @@
         <v>1.45118699613E11</v>
       </c>
       <c r="AK15" s="21" t="n">
-        <v>1.01731441135E11</v>
+        <v>1.01743852937E11</v>
       </c>
       <c r="AL15" s="21" t="n">
         <v>-5.5988331098E10</v>
       </c>
       <c r="AM15" s="21" t="n">
-        <v>2.69330102166E11</v>
+        <v>2.52696091933E11</v>
       </c>
       <c r="AN15" s="21" t="n">
         <v>1.38758727064E11</v>
       </c>
       <c r="AO15" s="21" t="n">
-        <v>3.63350040917E11</v>
+        <v>3.62619444681E11</v>
       </c>
       <c r="AP15" s="21" t="n">
         <v>1.71633837094E11</v>
@@ -34978,7 +34978,7 @@
         <v>-9.403081841E9</v>
       </c>
       <c r="AI16" s="21" t="n">
-        <v>9.511060173E9</v>
+        <v>8.944436809E9</v>
       </c>
       <c r="AJ16" s="21" t="n">
         <v>4.93189057E8</v>
@@ -35112,13 +35112,13 @@
         <v>-2.63223235976E11</v>
       </c>
       <c r="AI17" s="21" t="n">
-        <v>-2.2269144464E11</v>
+        <v>-2.2291844464E11</v>
       </c>
       <c r="AJ17" s="21" t="n">
         <v>-2.8877554482E11</v>
       </c>
       <c r="AK17" s="21" t="n">
-        <v>-3.19056012586E11</v>
+        <v>-3.08000726381E11</v>
       </c>
       <c r="AL17" s="21" t="n">
         <v>-2.86275962818E11</v>
@@ -35264,7 +35264,7 @@
         <v>7.601343012E9</v>
       </c>
       <c r="AO18" s="21" t="n">
-        <v>9.036368962E9</v>
+        <v>9.264314167E9</v>
       </c>
       <c r="AP18" s="21" t="n">
         <v>1.1380507292E10</v>
@@ -35648,25 +35648,25 @@
         <v>-1.0302385962E10</v>
       </c>
       <c r="AI21" s="21" t="n">
-        <v>3.43156280009E11</v>
+        <v>3.42590614051E11</v>
       </c>
       <c r="AJ21" s="21" t="n">
         <v>2.64901993296E11</v>
       </c>
       <c r="AK21" s="21" t="n">
-        <v>1.87223047874E11</v>
+        <v>1.88696854898E11</v>
       </c>
       <c r="AL21" s="21" t="n">
         <v>-1.06328047036E11</v>
       </c>
       <c r="AM21" s="21" t="n">
-        <v>4.73262737717E11</v>
+        <v>4.54656299726E11</v>
       </c>
       <c r="AN21" s="21" t="n">
         <v>2.37737254515E11</v>
       </c>
       <c r="AO21" s="21" t="n">
-        <v>3.05531001944E11</v>
+        <v>3.02674265516E11</v>
       </c>
       <c r="AP21" s="21" t="n">
         <v>1.14809434588E11</v>
@@ -35782,25 +35782,25 @@
         <v>-4.68590761493E11</v>
       </c>
       <c r="AI22" s="21" t="n">
-        <v>3.61702793113E11</v>
+        <v>2.74258058496E11</v>
       </c>
       <c r="AJ22" s="21" t="n">
         <v>-1.77452012945E11</v>
       </c>
       <c r="AK22" s="21" t="n">
-        <v>2.27813765357E11</v>
+        <v>2.46249132945E11</v>
       </c>
       <c r="AL22" s="21" t="n">
         <v>-1.5358303406E10</v>
       </c>
       <c r="AM22" s="21" t="n">
-        <v>-2.60076558314E11</v>
+        <v>-1.63658176961E11</v>
       </c>
       <c r="AN22" s="21" t="n">
         <v>-5.49677542272E11</v>
       </c>
       <c r="AO22" s="21" t="n">
-        <v>6.57761590765E11</v>
+        <v>5.78796916952E11</v>
       </c>
       <c r="AP22" s="21" t="n">
         <v>5.8253706682E10</v>
@@ -36318,25 +36318,25 @@
         <v>-4.68590761493E11</v>
       </c>
       <c r="AI26" s="21" t="n">
-        <v>3.61702793113E11</v>
+        <v>2.74258058496E11</v>
       </c>
       <c r="AJ26" s="21" t="n">
         <v>-1.77452012945E11</v>
       </c>
       <c r="AK26" s="21" t="n">
-        <v>2.27813765357E11</v>
+        <v>2.46249132945E11</v>
       </c>
       <c r="AL26" s="21" t="n">
         <v>-1.5358303406E10</v>
       </c>
       <c r="AM26" s="21" t="n">
-        <v>-2.60076558314E11</v>
+        <v>-1.63658176961E11</v>
       </c>
       <c r="AN26" s="21" t="n">
         <v>-5.49677542272E11</v>
       </c>
       <c r="AO26" s="21" t="n">
-        <v>6.57761590765E11</v>
+        <v>5.78796916952E11</v>
       </c>
       <c r="AP26" s="21" t="n">
         <v>5.8253706682E10</v>
@@ -36720,25 +36720,25 @@
         <v>2.43405215968E11</v>
       </c>
       <c r="AI29" s="21" t="n">
-        <v>-4.0548403309E11</v>
+        <v>-2.72851942879E11</v>
       </c>
       <c r="AJ29" s="21" t="n">
         <v>9.58164007E9</v>
       </c>
       <c r="AK29" s="21" t="n">
-        <v>2.32564723152E11</v>
+        <v>2.14127196357E11</v>
       </c>
       <c r="AL29" s="21" t="n">
         <v>-2.949392131E11</v>
       </c>
       <c r="AM29" s="21" t="n">
-        <v>8.40920349997E11</v>
+        <v>7.34196520067E11</v>
       </c>
       <c r="AN29" s="21" t="n">
         <v>3.69297477075E11</v>
       </c>
       <c r="AO29" s="21" t="n">
-        <v>-9.15369196874E11</v>
+        <v>-2.68774048192E11</v>
       </c>
       <c r="AP29" s="21" t="n">
         <v>2.25647374375E11</v>
@@ -37256,25 +37256,25 @@
         <v>2.43405215968E11</v>
       </c>
       <c r="AI33" s="21" t="n">
-        <v>-4.0548403309E11</v>
+        <v>-2.72851942879E11</v>
       </c>
       <c r="AJ33" s="21" t="n">
         <v>9.58164007E9</v>
       </c>
       <c r="AK33" s="21" t="n">
-        <v>2.32564723152E11</v>
+        <v>2.14127196357E11</v>
       </c>
       <c r="AL33" s="21" t="n">
         <v>-2.949392131E11</v>
       </c>
       <c r="AM33" s="21" t="n">
-        <v>8.40920349997E11</v>
+        <v>7.34196520067E11</v>
       </c>
       <c r="AN33" s="21" t="n">
         <v>3.69297477075E11</v>
       </c>
       <c r="AO33" s="21" t="n">
-        <v>-9.15369196874E11</v>
+        <v>-2.68774048192E11</v>
       </c>
       <c r="AP33" s="21" t="n">
         <v>2.25647374375E11</v>
@@ -37530,19 +37530,19 @@
         <v>2.4524863782E10</v>
       </c>
       <c r="AK35" s="21" t="n">
-        <v>3.5943197682E10</v>
+        <v>3.4471549864E10</v>
       </c>
       <c r="AL35" s="21" t="n">
         <v>-4.5570885689E10</v>
       </c>
       <c r="AM35" s="21" t="n">
-        <v>-7.788109552E9</v>
+        <v>-8.297297274E9</v>
       </c>
       <c r="AN35" s="21" t="n">
         <v>-9.0095856338E10</v>
       </c>
       <c r="AO35" s="21" t="n">
-        <v>5.050882361E10</v>
+        <v>5.2202018367E10</v>
       </c>
       <c r="AP35" s="21" t="n">
         <v>-9.537277689E10</v>
@@ -37658,7 +37658,7 @@
         <v>-1.17861103769E11</v>
       </c>
       <c r="AI36" s="21" t="n">
-        <v>6.2772553E10</v>
+        <v>0.0</v>
       </c>
       <c r="AJ36" s="21" t="n">
         <v>6.64982307378E11</v>
@@ -37670,7 +37670,7 @@
         <v>-1.82852843204E11</v>
       </c>
       <c r="AM36" s="21" t="n">
-        <v>-3.51062239876E11</v>
+        <v>-5.43577030632E11</v>
       </c>
       <c r="AN36" s="21" t="n">
         <v>-3.93099647736E11</v>
@@ -37810,7 +37810,7 @@
         <v>-7.617458581E9</v>
       </c>
       <c r="AO37" s="21" t="n">
-        <v>-8.994991416E9</v>
+        <v>-9.056605683E9</v>
       </c>
       <c r="AP37" s="21" t="n">
         <v>-1.1397131268E10</v>
@@ -37932,7 +37932,7 @@
         <v>-4.9289368978E10</v>
       </c>
       <c r="AK38" s="21" t="n">
-        <v>-5.4979060172E10</v>
+        <v>-5.4979060171E10</v>
       </c>
       <c r="AL38" s="21" t="n">
         <v>-4.7643574606E10</v>
@@ -37944,7 +37944,7 @@
         <v>-8.2575747954E10</v>
       </c>
       <c r="AO38" s="21" t="n">
-        <v>-6.3628455762E10</v>
+        <v>-6.3900883152E10</v>
       </c>
       <c r="AP38" s="21" t="n">
         <v>-2.9050292782E10</v>
@@ -38206,7 +38206,7 @@
         <v>-9.719280524E9</v>
       </c>
       <c r="AM40" s="21" t="n">
-        <v>-1.2579688205E10</v>
+        <v>-1.2683823159E10</v>
       </c>
       <c r="AN40" s="21" t="n">
         <v>-9.068882643E9</v>
@@ -38328,7 +38328,7 @@
         <v>-4.55084033181E11</v>
       </c>
       <c r="AI41" s="21" t="n">
-        <v>2.69367590325E11</v>
+        <v>2.51216726961E11</v>
       </c>
       <c r="AJ41" s="21" t="n">
         <v>7.15015207073E11</v>
@@ -38340,13 +38340,13 @@
         <v>-7.07934047529E11</v>
       </c>
       <c r="AM41" s="21" t="n">
-        <v>5.88541207929E11</v>
+        <v>3.66501207929E11</v>
       </c>
       <c r="AN41" s="21" t="n">
         <v>-5.25766973708E11</v>
       </c>
       <c r="AO41" s="21" t="n">
-        <v>1.261267481668E12</v>
+        <v>1.827400373209E12</v>
       </c>
       <c r="AP41" s="21" t="n">
         <v>2.51886272095E11</v>
@@ -38462,25 +38462,25 @@
         <v>1.386540744573E12</v>
       </c>
       <c r="AI42" s="21" t="n">
-        <v>-1.312447038604E12</v>
+        <v>-1.294862798604E12</v>
       </c>
       <c r="AJ42" s="21" t="n">
         <v>-2.49636057029E11</v>
       </c>
       <c r="AK42" s="21" t="n">
-        <v>-1.297757109984E12</v>
+        <v>-1.308812396189E12</v>
       </c>
       <c r="AL42" s="21" t="n">
         <v>2.028918703631E12</v>
       </c>
       <c r="AM42" s="21" t="n">
-        <v>-1.422845702611E12</v>
+        <v>-1.200805702611E12</v>
       </c>
       <c r="AN42" s="21" t="n">
         <v>1.59966375887E11</v>
       </c>
       <c r="AO42" s="21" t="n">
-        <v>-6.27535166066E11</v>
+        <v>-1.263668057607E12</v>
       </c>
       <c r="AP42" s="21" t="n">
         <v>3.79200993932E11</v>
@@ -38614,7 +38614,7 @@
         <v>-5.077728045E9</v>
       </c>
       <c r="AO43" s="21" t="n">
-        <v>-8.046591517E9</v>
+        <v>-8.186591517E9</v>
       </c>
       <c r="AP43" s="21" t="n">
         <v>-1.057089174E10</v>
@@ -38730,7 +38730,7 @@
         <v>2.60273888888E11</v>
       </c>
       <c r="AI44" s="21" t="n">
-        <v>0.0</v>
+        <v>2.27E8</v>
       </c>
       <c r="AJ44" s="21" t="n">
         <v>2.27E8</v>
@@ -38864,25 +38864,25 @@
         <v>-3.00815063E12</v>
       </c>
       <c r="AI45" s="21" t="n">
-        <v>-4.633924907226E12</v>
+        <v>-4.65878686613E12</v>
       </c>
       <c r="AJ45" s="21" t="n">
         <v>-2.276222089156E12</v>
       </c>
       <c r="AK45" s="21" t="n">
-        <v>-3.187734571846E12</v>
+        <v>-2.786553331319E12</v>
       </c>
       <c r="AL45" s="21" t="n">
         <v>-1.916953997281E12</v>
       </c>
       <c r="AM45" s="21" t="n">
-        <v>-3.210164060769E12</v>
+        <v>-2.932230402303E12</v>
       </c>
       <c r="AN45" s="21" t="n">
         <v>-2.018274435602E12</v>
       </c>
       <c r="AO45" s="21" t="n">
-        <v>-3.557834037584E12</v>
+        <v>-6.67111708483E12</v>
       </c>
       <c r="AP45" s="21" t="n">
         <v>-5.284783987651E12</v>
@@ -38998,25 +38998,25 @@
         <v>3.5221401965E12</v>
       </c>
       <c r="AI46" s="21" t="n">
-        <v>3.110328154562E12</v>
+        <v>3.058677994562E12</v>
       </c>
       <c r="AJ46" s="21" t="n">
         <v>1.811705435975E12</v>
       </c>
       <c r="AK46" s="21" t="n">
-        <v>1.780309938038E12</v>
+        <v>1.393763341324E12</v>
       </c>
       <c r="AL46" s="21" t="n">
         <v>3.658450611358E12</v>
       </c>
       <c r="AM46" s="21" t="n">
-        <v>1.555135787089E12</v>
+        <v>1.567948567654E12</v>
       </c>
       <c r="AN46" s="21" t="n">
         <v>2.004871456899E12</v>
       </c>
       <c r="AO46" s="21" t="n">
-        <v>2.742319480808E12</v>
+        <v>5.145779918084E12</v>
       </c>
       <c r="AP46" s="21" t="n">
         <v>5.395662681404E12</v>
@@ -39400,25 +39400,25 @@
         <v>6.26391057087E11</v>
       </c>
       <c r="AI49" s="21" t="n">
-        <v>2.12961442242E11</v>
+        <v>3.06830801146E11</v>
       </c>
       <c r="AJ49" s="21" t="n">
         <v>2.2574332608E11</v>
       </c>
       <c r="AK49" s="21" t="n">
-        <v>1.29092146005E11</v>
+        <v>1.03402215987E11</v>
       </c>
       <c r="AL49" s="21" t="n">
         <v>3.03842563989E11</v>
       </c>
       <c r="AM49" s="21" t="n">
-        <v>2.41010441558E11</v>
+        <v>1.72304002527E11</v>
       </c>
       <c r="AN49" s="21" t="n">
         <v>1.61363182635E11</v>
       </c>
       <c r="AO49" s="21" t="n">
-        <v>1.96025982227E11</v>
+        <v>2.69855700656E11</v>
       </c>
       <c r="AP49" s="21" t="n">
         <v>2.78756839309E11</v>
@@ -39540,7 +39540,7 @@
         <v>2.17779500595E11</v>
       </c>
       <c r="AK50" s="21" t="n">
-        <v>-1.00272226931E11</v>
+        <v>-8.9216940726E10</v>
       </c>
       <c r="AL50" s="21" t="n">
         <v>-1.442884361134E12</v>
@@ -39674,7 +39674,7 @@
         <v>9.385361235E9</v>
       </c>
       <c r="AK51" s="21" t="n">
-        <v>-7.866416957E9</v>
+        <v>3.188869248E9</v>
       </c>
       <c r="AL51" s="21" t="n">
         <v>1.1055286205E10</v>
@@ -39948,13 +39948,13 @@
         <v>6.502759781E10</v>
       </c>
       <c r="AM53" s="21" t="n">
-        <v>1.039440151042E12</v>
+        <v>8.82824941679E11</v>
       </c>
       <c r="AN53" s="21" t="n">
         <v>1.30323280153E11</v>
       </c>
       <c r="AO53" s="21" t="n">
-        <v>9.41430487121E11</v>
+        <v>8.40804166402E11</v>
       </c>
       <c r="AP53" s="21" t="n">
         <v>-1.95643545742E11</v>
@@ -40082,13 +40082,13 @@
         <v>-7.94465346445E11</v>
       </c>
       <c r="AM54" s="21" t="n">
-        <v>-1.56615209363E11</v>
+        <v>0.0</v>
       </c>
       <c r="AN54" s="21" t="n">
         <v>-7.8984567755E10</v>
       </c>
       <c r="AO54" s="21" t="n">
-        <v>-7.32818371125E11</v>
+        <v>-6.32192050406E11</v>
       </c>
       <c r="AP54" s="21" t="n">
         <v>-7.47132224331E11</v>
@@ -40472,7 +40472,7 @@
         <v>6.21509129471E11</v>
       </c>
       <c r="AI57" s="21" t="n">
-        <v>-4.66284880316E11</v>
+        <v>-4.6685150368E11</v>
       </c>
       <c r="AJ57" s="21" t="n">
         <v>6.83158650639E11</v>
@@ -40490,7 +40490,7 @@
         <v>-3.14461885423E11</v>
       </c>
       <c r="AO57" s="21" t="n">
-        <v>8.4469918656E10</v>
+        <v>1.4469918656E10</v>
       </c>
       <c r="AP57" s="21" t="n">
         <v>-3.07904467597E11</v>
@@ -40740,7 +40740,7 @@
         <v>6.14701781E8</v>
       </c>
       <c r="AI59" s="21" t="n">
-        <v>-1.081577967E9</v>
+        <v>-5.14954603E8</v>
       </c>
       <c r="AJ59" s="21" t="n">
         <v>9.71924445E8</v>
@@ -40892,7 +40892,7 @@
         <v>6.13506093397E11</v>
       </c>
       <c r="AO60" s="21" t="n">
-        <v>6.92973445375E11</v>
+        <v>6.22973445375E11</v>
       </c>
       <c r="AP60" s="21" t="n">
         <v>3.88792764696E11</v>
@@ -41310,7 +41310,7 @@
         <v>6.13506093397E11</v>
       </c>
       <c r="AO12" s="25" t="n">
-        <v>6.92973445375E11</v>
+        <v>6.22973445375E11</v>
       </c>
       <c r="AP12" s="25" t="n">
         <v>3.88792764696E11</v>
@@ -41846,7 +41846,7 @@
         <v>2.27E11</v>
       </c>
       <c r="AO16" s="25" t="n">
-        <v>1.307E11</v>
+        <v>6.07E10</v>
       </c>
       <c r="AP16" s="25" t="n">
         <v>7.2554640506E10</v>
@@ -41974,13 +41974,13 @@
         <v>7.613096896327E12</v>
       </c>
       <c r="AM17" s="25" t="n">
-        <v>1.0284562216095E13</v>
+        <v>1.3775275855975E13</v>
       </c>
       <c r="AN17" s="25" t="n">
         <v>1.0647911962647E13</v>
       </c>
       <c r="AO17" s="25" t="n">
-        <v>8.501355536065E12</v>
+        <v>1.5207983782775E13</v>
       </c>
       <c r="AP17" s="25" t="n">
         <v>9.95911353506E12</v>
@@ -42108,7 +42108,7 @@
         <v>7.8370788E11</v>
       </c>
       <c r="AM18" s="25" t="n">
-        <v>1.134770119876E12</v>
+        <v>1.327284910632E12</v>
       </c>
       <c r="AN18" s="25" t="n">
         <v>1.527869767612E12</v>
@@ -42242,13 +42242,13 @@
         <v>6.866474896327E12</v>
       </c>
       <c r="AM19" s="25" t="n">
-        <v>9.186877976219E12</v>
+        <v>1.2489751357415E13</v>
       </c>
       <c r="AN19" s="25" t="n">
         <v>9.157128075035E12</v>
       </c>
       <c r="AO19" s="25" t="n">
-        <v>8.255412138741E12</v>
+        <v>1.4967019417523E13</v>
       </c>
       <c r="AP19" s="25" t="n">
         <v>9.713170137736E12</v>
@@ -42376,13 +42376,13 @@
         <v>6.866474896327E12</v>
       </c>
       <c r="AM20" s="25" t="n">
-        <v>9.186877976219E12</v>
+        <v>8.992250938133E12</v>
       </c>
       <c r="AN20" s="25" t="n">
         <v>9.157128075035E12</v>
       </c>
       <c r="AO20" s="25" t="n">
-        <v>8.255412138741E12</v>
+        <v>8.325412138741E12</v>
       </c>
       <c r="AP20" s="25" t="n">
         <v>9.713170137736E12</v>
@@ -42510,13 +42510,13 @@
         <v>0.0</v>
       </c>
       <c r="AM21" s="25" t="n">
-        <v>0.0</v>
+        <v>3.497500419282E12</v>
       </c>
       <c r="AN21" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="AO21" s="25" t="n">
-        <v>0.0</v>
+        <v>6.641607278782E12</v>
       </c>
       <c r="AP21" s="25" t="n">
         <v>0.0</v>
@@ -42778,13 +42778,13 @@
         <v>-3.708588E10</v>
       </c>
       <c r="AM23" s="25" t="n">
-        <v>-3.708588E10</v>
+        <v>-4.1760412072E10</v>
       </c>
       <c r="AN23" s="25" t="n">
         <v>-3.708588E10</v>
       </c>
       <c r="AO23" s="25" t="n">
-        <v>-3.708588E10</v>
+        <v>-4.2064912072E10</v>
       </c>
       <c r="AP23" s="25" t="n">
         <v>-3.708588E10</v>
@@ -42912,13 +42912,13 @@
         <v>1.2014232805483E13</v>
       </c>
       <c r="AM24" s="25" t="n">
-        <v>1.3991048490101E13</v>
+        <v>1.3976461556823E13</v>
       </c>
       <c r="AN24" s="25" t="n">
         <v>1.4254549358459E13</v>
       </c>
       <c r="AO24" s="25" t="n">
-        <v>1.5727952990542E13</v>
+        <v>1.5722587746471E13</v>
       </c>
       <c r="AP24" s="25" t="n">
         <v>1.5010359058562E13</v>
@@ -43046,13 +43046,13 @@
         <v>7.77194573171E11</v>
       </c>
       <c r="AM25" s="25" t="n">
-        <v>6.12791455909E11</v>
+        <v>5.8761639526E11</v>
       </c>
       <c r="AN25" s="25" t="n">
         <v>8.58895747504E11</v>
       </c>
       <c r="AO25" s="25" t="n">
-        <v>7.34575087222E11</v>
+        <v>7.34924858878E11</v>
       </c>
       <c r="AP25" s="25" t="n">
         <v>7.12008137929E11</v>
@@ -43186,7 +43186,7 @@
         <v>3.86122536749E11</v>
       </c>
       <c r="AO26" s="25" t="n">
-        <v>3.00382773842E11</v>
+        <v>3.06464142352E11</v>
       </c>
       <c r="AP26" s="25" t="n">
         <v>1.91017914604E11</v>
@@ -43320,7 +43320,7 @@
         <v>1.321094637751E12</v>
       </c>
       <c r="AO27" s="25" t="n">
-        <v>9.81196093823E11</v>
+        <v>9.79899909041E11</v>
       </c>
       <c r="AP27" s="25" t="n">
         <v>1.027367520058E12</v>
@@ -43448,13 +43448,13 @@
         <v>1.033683764069E13</v>
       </c>
       <c r="AM28" s="25" t="n">
-        <v>1.2288619458354E13</v>
+        <v>1.2299207585725E13</v>
       </c>
       <c r="AN28" s="25" t="n">
         <v>1.1688436436455E13</v>
       </c>
       <c r="AO28" s="25" t="n">
-        <v>1.3711799035655E13</v>
+        <v>1.37012988362E13</v>
       </c>
       <c r="AP28" s="25" t="n">
         <v>1.3079965485971E13</v>
@@ -44788,7 +44788,7 @@
         <v>2.45512400253E11</v>
       </c>
       <c r="AM38" s="25" t="n">
-        <v>2.67700899706E11</v>
+        <v>2.67720899706E11</v>
       </c>
       <c r="AN38" s="25" t="n">
         <v>2.87684035856E11</v>
@@ -45324,7 +45324,7 @@
         <v>2.45512400253E11</v>
       </c>
       <c r="AM42" s="25" t="n">
-        <v>2.67700899706E11</v>
+        <v>2.67720899706E11</v>
       </c>
       <c r="AN42" s="25" t="n">
         <v>2.87684035856E11</v>
@@ -50684,13 +50684,13 @@
         <v>6.4539474E10</v>
       </c>
       <c r="AM82" s="25" t="n">
-        <v>0.0</v>
+        <v>3.562039893282E12</v>
       </c>
       <c r="AN82" s="25" t="n">
         <v>4.9636474E10</v>
       </c>
       <c r="AO82" s="25" t="n">
-        <v>4.9636474E10</v>
+        <v>6.691243752782E12</v>
       </c>
       <c r="AP82" s="25" t="n">
         <v>4.9636474E10</v>
@@ -50818,13 +50818,13 @@
         <v>0.0</v>
       </c>
       <c r="AM83" s="25" t="n">
-        <v>0.0</v>
+        <v>2.33041966613E12</v>
       </c>
       <c r="AN83" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="AO83" s="25" t="n">
-        <v>0.0</v>
+        <v>3.37641966613E12</v>
       </c>
       <c r="AP83" s="25" t="n">
         <v>0.0</v>
@@ -51086,13 +51086,13 @@
         <v>0.0</v>
       </c>
       <c r="AM85" s="25" t="n">
-        <v>0.0</v>
+        <v>1.087080753152E12</v>
       </c>
       <c r="AN85" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="AO85" s="25" t="n">
-        <v>0.0</v>
+        <v>3.005187612652E12</v>
       </c>
       <c r="AP85" s="25" t="n">
         <v>0.0</v>
@@ -51220,13 +51220,13 @@
         <v>0.0</v>
       </c>
       <c r="AM86" s="25" t="n">
-        <v>0.0</v>
+        <v>8.0E10</v>
       </c>
       <c r="AN86" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="AO86" s="25" t="n">
-        <v>0.0</v>
+        <v>2.6E11</v>
       </c>
       <c r="AP86" s="25" t="n">
         <v>0.0</v>
@@ -51488,7 +51488,7 @@
         <v>6.4539474E10</v>
       </c>
       <c r="AM88" s="25" t="n">
-        <v>0.0</v>
+        <v>6.4539474E10</v>
       </c>
       <c r="AN88" s="25" t="n">
         <v>4.9636474E10</v>
@@ -52694,13 +52694,13 @@
         <v>2.01782252611E11</v>
       </c>
       <c r="AM97" s="25" t="n">
-        <v>1.50687214608E11</v>
+        <v>1.50379352013E11</v>
       </c>
       <c r="AN97" s="25" t="n">
         <v>1.55270603379E11</v>
       </c>
       <c r="AO97" s="25" t="n">
-        <v>1.32413333376E11</v>
+        <v>1.31670009814E11</v>
       </c>
       <c r="AP97" s="25" t="n">
         <v>1.63377958588E11</v>
@@ -52828,13 +52828,13 @@
         <v>1.02281626238E11</v>
       </c>
       <c r="AM98" s="25" t="n">
-        <v>5.4986593335E10</v>
+        <v>5.4960452413E10</v>
       </c>
       <c r="AN98" s="25" t="n">
         <v>8.6638427412E10</v>
       </c>
       <c r="AO98" s="25" t="n">
-        <v>1.00206084373E11</v>
+        <v>1.0020607428E11</v>
       </c>
       <c r="AP98" s="25" t="n">
         <v>7.1401156109E10</v>
@@ -53230,13 +53230,13 @@
         <v>8.1051762002E10</v>
       </c>
       <c r="AM101" s="25" t="n">
-        <v>8.038533222E10</v>
+        <v>8.0009065915E10</v>
       </c>
       <c r="AN101" s="25" t="n">
         <v>5.897932355E10</v>
       </c>
       <c r="AO101" s="25" t="n">
-        <v>2.1568532373E10</v>
+        <v>2.0825287904E10</v>
       </c>
       <c r="AP101" s="25" t="n">
         <v>6.5390990366E10</v>
@@ -53900,13 +53900,13 @@
         <v>1.8448864371E10</v>
       </c>
       <c r="AM106" s="25" t="n">
-        <v>1.5315289053E10</v>
+        <v>1.5409833685E10</v>
       </c>
       <c r="AN106" s="25" t="n">
         <v>9.652852417E9</v>
       </c>
       <c r="AO106" s="25" t="n">
-        <v>1.063871663E10</v>
+        <v>1.063864763E10</v>
       </c>
       <c r="AP106" s="25" t="n">
         <v>2.6585812113E10</v>
@@ -54034,13 +54034,13 @@
         <v>8.6418755587E10</v>
       </c>
       <c r="AM107" s="25" t="n">
-        <v>1.09625338575E11</v>
+        <v>1.09645338575E11</v>
       </c>
       <c r="AN107" s="25" t="n">
         <v>9.556493313E10</v>
       </c>
       <c r="AO107" s="25" t="n">
-        <v>8.6940524877E10</v>
+        <v>8.7290296533E10</v>
       </c>
       <c r="AP107" s="25" t="n">
         <v>1.11114535683E11</v>
@@ -54302,13 +54302,13 @@
         <v>0.0</v>
       </c>
       <c r="AM109" s="25" t="n">
-        <v>0.0</v>
+        <v>1.0977622482E10</v>
       </c>
       <c r="AN109" s="25" t="n">
         <v>0.0</v>
       </c>
       <c r="AO109" s="25" t="n">
-        <v>0.0</v>
+        <v>1.0276043984E10</v>
       </c>
       <c r="AP109" s="25" t="n">
         <v>0.0</v>
@@ -55240,13 +55240,13 @@
         <v>8.6418755587E10</v>
       </c>
       <c r="AM116" s="25" t="n">
-        <v>1.09625338575E11</v>
+        <v>9.8667716093E10</v>
       </c>
       <c r="AN116" s="25" t="n">
         <v>9.556493313E10</v>
       </c>
       <c r="AO116" s="25" t="n">
-        <v>8.6940524877E10</v>
+        <v>7.7014252549E10</v>
       </c>
       <c r="AP116" s="25" t="n">
         <v>1.11114535683E11</v>
@@ -55374,13 +55374,13 @@
         <v>1.423344559709E13</v>
       </c>
       <c r="AM117" s="25" t="n">
-        <v>1.6187591364067E13</v>
+        <v>1.6179290961689E13</v>
       </c>
       <c r="AN117" s="25" t="n">
         <v>1.5896246020295E13</v>
       </c>
       <c r="AO117" s="25" t="n">
-        <v>1.8302561785851E13</v>
+        <v>1.829058949016E13</v>
       </c>
       <c r="AP117" s="25" t="n">
         <v>1.7802879951675E13</v>
@@ -55508,7 +55508,7 @@
         <v>5.65931676021E12</v>
       </c>
       <c r="AM118" s="25" t="n">
-        <v>8.234586627841E12</v>
+        <v>8.209968518625E12</v>
       </c>
       <c r="AN118" s="25" t="n">
         <v>8.518808940748E12</v>
@@ -55776,7 +55776,7 @@
         <v>5.65931676021E12</v>
       </c>
       <c r="AM120" s="25" t="n">
-        <v>8.234586627841E12</v>
+        <v>8.209968518625E12</v>
       </c>
       <c r="AN120" s="25" t="n">
         <v>8.518808940748E12</v>
@@ -57250,7 +57250,7 @@
         <v>5.65931676021E12</v>
       </c>
       <c r="AM131" s="25" t="n">
-        <v>8.234586627841E12</v>
+        <v>8.209968518625E12</v>
       </c>
       <c r="AN131" s="25" t="n">
         <v>8.518808940748E12</v>
@@ -57384,13 +57384,13 @@
         <v>8.148152382994E12</v>
       </c>
       <c r="AM132" s="25" t="n">
-        <v>7.502795322939E12</v>
+        <v>7.519307559431E12</v>
       </c>
       <c r="AN132" s="25" t="n">
         <v>6.903555947909E12</v>
       </c>
       <c r="AO132" s="25" t="n">
-        <v>9.480074808965E12</v>
+        <v>9.468102513274E12</v>
       </c>
       <c r="AP132" s="25" t="n">
         <v>9.597552508658E12</v>
@@ -57652,13 +57652,13 @@
         <v>8.148152382994E12</v>
       </c>
       <c r="AM134" s="25" t="n">
-        <v>7.502795322939E12</v>
+        <v>7.519307559431E12</v>
       </c>
       <c r="AN134" s="25" t="n">
         <v>6.903555947909E12</v>
       </c>
       <c r="AO134" s="25" t="n">
-        <v>9.480074808965E12</v>
+        <v>9.468102513274E12</v>
       </c>
       <c r="AP134" s="25" t="n">
         <v>9.597552508658E12</v>
@@ -59126,13 +59126,13 @@
         <v>8.148152382994E12</v>
       </c>
       <c r="AM145" s="25" t="n">
-        <v>7.502795322939E12</v>
+        <v>7.519307559431E12</v>
       </c>
       <c r="AN145" s="25" t="n">
         <v>6.903555947909E12</v>
       </c>
       <c r="AO145" s="25" t="n">
-        <v>9.480074808965E12</v>
+        <v>9.468102513274E12</v>
       </c>
       <c r="AP145" s="25" t="n">
         <v>9.597552508658E12</v>
@@ -59260,7 +59260,7 @@
         <v>4.25976453886E11</v>
       </c>
       <c r="AM146" s="25" t="n">
-        <v>4.50209413287E11</v>
+        <v>4.50014883633E11</v>
       </c>
       <c r="AN146" s="25" t="n">
         <v>4.73881131638E11</v>
@@ -59528,7 +59528,7 @@
         <v>4.25976453886E11</v>
       </c>
       <c r="AM148" s="25" t="n">
-        <v>4.50209413287E11</v>
+        <v>4.50014883633E11</v>
       </c>
       <c r="AN148" s="25" t="n">
         <v>4.73881131638E11</v>
@@ -61002,7 +61002,7 @@
         <v>4.25976453886E11</v>
       </c>
       <c r="AM159" s="25" t="n">
-        <v>4.50209413287E11</v>
+        <v>4.50014883633E11</v>
       </c>
       <c r="AN159" s="25" t="n">
         <v>4.73881131638E11</v>
@@ -61672,7 +61672,7 @@
         <v>2.605122058398E12</v>
       </c>
       <c r="AM164" s="25" t="n">
-        <v>4.216777257528E12</v>
+        <v>4.191541769239E12</v>
       </c>
       <c r="AN164" s="25" t="n">
         <v>2.877921268479E12</v>
@@ -61940,7 +61940,7 @@
         <v>2.605122058398E12</v>
       </c>
       <c r="AM166" s="25" t="n">
-        <v>4.216777257528E12</v>
+        <v>4.191541769239E12</v>
       </c>
       <c r="AN166" s="25" t="n">
         <v>2.877921268479E12</v>
@@ -63414,7 +63414,7 @@
         <v>2.605122058398E12</v>
       </c>
       <c r="AM177" s="25" t="n">
-        <v>4.216777257528E12</v>
+        <v>4.191541769239E12</v>
       </c>
       <c r="AN177" s="25" t="n">
         <v>2.877921268479E12</v>
@@ -65276,7 +65276,7 @@
         <v>2.053632868544E12</v>
       </c>
       <c r="AM191" s="25" t="n">
-        <v>4.144578644599E12</v>
+        <v>4.138796121786E12</v>
       </c>
       <c r="AN191" s="25" t="n">
         <v>2.92344014278E12</v>
@@ -66870,7 +66870,7 @@
         <v>2.053632868544E12</v>
       </c>
       <c r="AM203" s="25" t="n">
-        <v>4.144578644599E12</v>
+        <v>4.138796121786E12</v>
       </c>
       <c r="AN203" s="25" t="n">
         <v>2.92344014278E12</v>
@@ -67010,7 +67010,7 @@
         <v>1.449812654434E12</v>
       </c>
       <c r="AO204" s="25" t="n">
-        <v>7.91080854113E11</v>
+        <v>8.36589652151E11</v>
       </c>
       <c r="AP204" s="25" t="n">
         <v>9.48697779925E11</v>
@@ -67278,7 +67278,7 @@
         <v>1.449812654434E12</v>
       </c>
       <c r="AO206" s="25" t="n">
-        <v>7.91080854113E11</v>
+        <v>8.36589652151E11</v>
       </c>
       <c r="AP206" s="25" t="n">
         <v>9.48697779925E11</v>
@@ -68752,7 +68752,7 @@
         <v>1.449812654434E12</v>
       </c>
       <c r="AO217" s="25" t="n">
-        <v>7.91080854113E11</v>
+        <v>8.36589652151E11</v>
       </c>
       <c r="AP217" s="25" t="n">
         <v>9.48697779925E11</v>
@@ -70614,7 +70614,7 @@
         <v>1.409218741446E12</v>
       </c>
       <c r="AO231" s="25" t="n">
-        <v>5.31019908421E11</v>
+        <v>5.76528706459E11</v>
       </c>
       <c r="AP231" s="25" t="n">
         <v>6.05366726106E11</v>
@@ -72208,7 +72208,7 @@
         <v>1.409218741446E12</v>
       </c>
       <c r="AO243" s="25" t="n">
-        <v>5.31019908421E11</v>
+        <v>5.76528706459E11</v>
       </c>
       <c r="AP243" s="25" t="n">
         <v>6.05366726106E11</v>
@@ -72336,13 +72336,13 @@
         <v>3.33881683524E11</v>
       </c>
       <c r="AM244" s="25" t="n">
-        <v>3.13713126042E11</v>
+        <v>3.13713126193E11</v>
       </c>
       <c r="AN244" s="25" t="n">
         <v>3.2893184565E11</v>
       </c>
       <c r="AO244" s="25" t="n">
-        <v>3.28453204875E11</v>
+        <v>3.2711150038E11</v>
       </c>
       <c r="AP244" s="25" t="n">
         <v>3.49779984747E11</v>
@@ -73140,13 +73140,13 @@
         <v>3.4147170668E10</v>
       </c>
       <c r="AM250" s="25" t="n">
-        <v>3.8574009526E10</v>
+        <v>3.8574009677E10</v>
       </c>
       <c r="AN250" s="25" t="n">
         <v>3.8462516793E10</v>
       </c>
       <c r="AO250" s="25" t="n">
-        <v>5.6968871727E10</v>
+        <v>5.5627167232E10</v>
       </c>
       <c r="AP250" s="25" t="n">
         <v>7.6098065662E10</v>
@@ -73274,13 +73274,13 @@
         <v>3.4147170668E10</v>
       </c>
       <c r="AM251" s="25" t="n">
-        <v>3.8574009526E10</v>
+        <v>3.8574009677E10</v>
       </c>
       <c r="AN251" s="25" t="n">
         <v>3.8462516793E10</v>
       </c>
       <c r="AO251" s="25" t="n">
-        <v>5.6968871727E10</v>
+        <v>5.5627167232E10</v>
       </c>
       <c r="AP251" s="25" t="n">
         <v>7.6098065662E10</v>
@@ -73944,13 +73944,13 @@
         <v>1.37573602541E11</v>
       </c>
       <c r="AM256" s="25" t="n">
-        <v>9.5514457364E10</v>
+        <v>9.5514571589E10</v>
       </c>
       <c r="AN256" s="25" t="n">
         <v>9.807227632E10</v>
       </c>
       <c r="AO256" s="25" t="n">
-        <v>9.353512036E10</v>
+        <v>9.353662528E10</v>
       </c>
       <c r="AP256" s="25" t="n">
         <v>1.59218203393E11</v>
@@ -74614,13 +74614,13 @@
         <v>2.6493688764E10</v>
       </c>
       <c r="AM261" s="25" t="n">
-        <v>4.4714440972E10</v>
+        <v>4.4714441172E10</v>
       </c>
       <c r="AN261" s="25" t="n">
         <v>4.8154378653E10</v>
       </c>
       <c r="AO261" s="25" t="n">
-        <v>3.4685830029E10</v>
+        <v>3.4685830028E10</v>
       </c>
       <c r="AP261" s="25" t="n">
         <v>4.8602200703E10</v>
@@ -74748,13 +74748,13 @@
         <v>2.6493688764E10</v>
       </c>
       <c r="AM262" s="25" t="n">
-        <v>4.4714440972E10</v>
+        <v>4.4714441172E10</v>
       </c>
       <c r="AN262" s="25" t="n">
         <v>4.8154378653E10</v>
       </c>
       <c r="AO262" s="25" t="n">
-        <v>3.4685830029E10</v>
+        <v>3.4685830028E10</v>
       </c>
       <c r="AP262" s="25" t="n">
         <v>4.8602200703E10</v>
@@ -75022,7 +75022,7 @@
         <v>7.601343012E9</v>
       </c>
       <c r="AO264" s="25" t="n">
-        <v>9.036368962E9</v>
+        <v>9.264314167E9</v>
       </c>
       <c r="AP264" s="25" t="n">
         <v>1.1380507292E10</v>
@@ -75418,13 +75418,13 @@
         <v>1.05085332868E11</v>
       </c>
       <c r="AM267" s="25" t="n">
-        <v>4.5601197434E10</v>
+        <v>4.5601311459E10</v>
       </c>
       <c r="AN267" s="25" t="n">
         <v>4.1765554655E10</v>
       </c>
       <c r="AO267" s="25" t="n">
-        <v>5.0059421369E10</v>
+        <v>4.9832981085E10</v>
       </c>
       <c r="AP267" s="25" t="n">
         <v>9.9066367508E10</v>
@@ -75552,13 +75552,13 @@
         <v>2.19473269944E11</v>
       </c>
       <c r="AM268" s="25" t="n">
-        <v>1.61012803106E11</v>
+        <v>1.60980508467E11</v>
       </c>
       <c r="AN268" s="25" t="n">
         <v>1.57545731887E11</v>
       </c>
       <c r="AO268" s="25" t="n">
-        <v>1.8246862558E11</v>
+        <v>1.81300839029E11</v>
       </c>
       <c r="AP268" s="25" t="n">
         <v>2.12552142175E11</v>
@@ -76222,13 +76222,13 @@
         <v>1.50895452657E11</v>
       </c>
       <c r="AM273" s="25" t="n">
-        <v>9.9050226229E10</v>
+        <v>9.901690559E10</v>
       </c>
       <c r="AN273" s="25" t="n">
         <v>9.6818181908E10</v>
       </c>
       <c r="AO273" s="25" t="n">
-        <v>1.11668022088E11</v>
+        <v>1.11782842651E11</v>
       </c>
       <c r="AP273" s="25" t="n">
         <v>1.41521448429E11</v>
@@ -76490,13 +76490,13 @@
         <v>4.9945371894E10</v>
       </c>
       <c r="AM275" s="25" t="n">
-        <v>4.3623451625E10</v>
+        <v>4.3624477625E10</v>
       </c>
       <c r="AN275" s="25" t="n">
         <v>4.2358775562E10</v>
       </c>
       <c r="AO275" s="25" t="n">
-        <v>5.2818293273E10</v>
+        <v>5.1535686159E10</v>
       </c>
       <c r="AP275" s="25" t="n">
         <v>5.1334869624E10</v>
@@ -77428,13 +77428,13 @@
         <v>6.3826672435E10</v>
       </c>
       <c r="AM282" s="25" t="n">
-        <v>9.5071602576E10</v>
+        <v>0.0</v>
       </c>
       <c r="AN282" s="25" t="n">
         <v>1.44251805995E11</v>
       </c>
       <c r="AO282" s="25" t="n">
-        <v>1.02714276474E11</v>
+        <v>1.01581841901E11</v>
       </c>
       <c r="AP282" s="25" t="n">
         <v>7.0123012676E10</v>
@@ -77964,13 +77964,13 @@
         <v>6.3826672435E10</v>
       </c>
       <c r="AM286" s="25" t="n">
-        <v>9.5071602576E10</v>
+        <v>0.0</v>
       </c>
       <c r="AN286" s="25" t="n">
         <v>1.44251805995E11</v>
       </c>
       <c r="AO286" s="25" t="n">
-        <v>1.02714276474E11</v>
+        <v>1.01581841901E11</v>
       </c>
       <c r="AP286" s="25" t="n">
         <v>7.0123012676E10</v>

--- a/data/PVI.xlsx
+++ b/data/PVI.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>PVI</t>

--- a/data/PVI.xlsx
+++ b/data/PVI.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>PVI</t>

--- a/data/PVI.xlsx
+++ b/data/PVI.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>PVI</t>
